--- a/podshibakin/Книга1.xlsx
+++ b/podshibakin/Книга1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k221-19\Documents\41МР\попов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{561A38F9-CA30-419D-A0D1-D9C06EF7D24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C424ABA-814C-421A-8D34-8C37E5CD25FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAD2D32A-1CBB-4222-8C2D-423F3898768B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>x0</t>
   </si>
@@ -66,7 +67,10 @@
     <t>i</t>
   </si>
   <si>
-    <t>y+h/2*y*sin(x)</t>
+    <t>delta = h*F</t>
+  </si>
+  <si>
+    <t>F=y+h/2*y*sin(x)</t>
   </si>
 </sst>
 </file>
@@ -124,6 +128,2094 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32109479558298454"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$H$6:$H$206</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.4800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6600000000000006</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7100000000000006</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.7600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.7700000000000007</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7800000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7900000000000007</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.8100000000000007</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.8200000000000007</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.8300000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.8500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8600000000000008</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8700000000000008</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.8900000000000008</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9100000000000008</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.9200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.9300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.9400000000000008</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.9500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9700000000000009</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.9900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.0100000000000007</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.0200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.0300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.0699999999999994</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.0799999999999992</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.0999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.1099999999999985</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.1199999999999983</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.1299999999999981</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.1399999999999979</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.1499999999999977</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.1599999999999975</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.1699999999999973</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.1799999999999971</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.1899999999999968</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.1999999999999966</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.2099999999999964</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.2199999999999962</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.2399999999999958</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.2499999999999956</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.2599999999999953</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.2699999999999951</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.2799999999999949</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.2899999999999947</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.2999999999999945</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.3099999999999943</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.3199999999999941</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.3299999999999939</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.3399999999999936</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.3499999999999934</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.3599999999999932</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.369999999999993</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.3799999999999928</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.3899999999999926</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.3999999999999924</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.4099999999999921</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.4199999999999919</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.4299999999999917</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.4399999999999915</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.4499999999999913</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.4599999999999911</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.4699999999999909</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.4799999999999907</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.4899999999999904</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.4999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.50999999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.5199999999999898</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.5299999999999896</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.5399999999999894</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.5499999999999892</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.559999999999989</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.5699999999999887</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.5799999999999885</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.5899999999999883</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.5999999999999881</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.6099999999999879</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.6199999999999877</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.6299999999999875</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.6399999999999872</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.649999999999987</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.6599999999999868</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.6699999999999866</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.6799999999999864</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.6899999999999862</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.699999999999986</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.7099999999999858</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.7199999999999855</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.7299999999999853</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.7399999999999851</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.7499999999999849</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.7599999999999847</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.7699999999999845</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.7799999999999843</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.789999999999984</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.7999999999999838</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.8099999999999836</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.8199999999999834</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.8299999999999832</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.839999999999983</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.8499999999999828</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.8599999999999826</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.8699999999999823</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.8799999999999821</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.8899999999999819</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.8999999999999817</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.9099999999999815</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.9199999999999813</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.9299999999999811</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.9399999999999809</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.9499999999999806</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.9599999999999804</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.9699999999999802</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.97999999999998</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.9899999999999798</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.9999999999999796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$I$6:$I$206</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0169542731144583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0341604539382749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0516207868244787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0693375202175757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0873129056541369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1055491967315874</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1240486480447114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1428135140893976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1618460481331629</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1811485010520082</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2007231201331674</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2205721478433391</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2406978205619885</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2611023672793458</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2817880082587298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3027569536628532</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3240114021437881</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3455535393962892</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3673855366741985</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3895095492696794</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4119277149550578</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4346421523870698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4576549594733508</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.480968211701029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5045839604273152</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5285042311320223</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.552731021631975</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5772663002573082</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6021120039896961</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6272700365625852</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6527422665235498</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6785305252589313</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.704636604980962</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.7310622566776255</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7578091880255484</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7848790612662646</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.8122734910462484</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.8399940422211594</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.8680422276247977</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.8964195058033173</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.9251272787153075</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.9541668893984032</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.9835396196031465</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0132466873948811</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.043289244724519</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0736683749690847</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.104385090443007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.1354403298811828</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.1668349558949185</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1985697524019083</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.2306454220314826</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.2630625835064286</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.2958217690027523</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.3289234214888239</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.3623678920454219</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.3961554371682539</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.4302862160546215</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.4647602878759525</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.4995776090380089</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.5347380304306482</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.5702412946690956</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.6060870333287474</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.6422747641756166</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.6788038883945942</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.7156736878177772</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.7528833221551934</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.7904318262303192</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.828318107222866</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.8665409419213814</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.9050989739882822</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.9439907112400086</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.9832145229450586</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.0227686371427307</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.06265113798547</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.1028599631077745</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.1433929010246935</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.1842475885630019</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.2254215083281954</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.2669119862105154</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.3087161889332695</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.3508311216467535</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.3932536255711501</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.4359803756918108</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.4790078785103891</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.5223324698553169</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5659503127551693</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.6098573953784943</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.6540495290437045</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.6985223463026777</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.7432712991017096</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.7882916570235095</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.8335785056139207</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.8791267447970714</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.9249310873826664</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.9709860576691272</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.0172859901462887</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.0638250283013448</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.1105971235317336</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.1575960341686162</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.2048153246146001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.2522483645992972</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.2998883285563068</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.3477281951251401</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.3957607467815683</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.4439785695998264</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.4923740531500309</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.540939390534116</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.5896665785635111</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.6385474180817043</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.6875735144347557</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.7367362780927253</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.7860269254248866</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.8354364796314826</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.8849557718346848</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.9345754423312789</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.9842859420094916</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.0340775339322272</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.0839402950888566</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.1338641183175504</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.1838387143999984</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.2338536143302017</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.2838981717588576</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.3339615656146933</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.3840328029039268</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6.4341007216888473</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.484153994246336</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.534181130406937</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.5841704810749055</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.6341102419294549</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.6839884573072146</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.7337930242657</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.7835116968273841</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.8331320904037351</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.8826416863983653</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.9320278369882038</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.9812777700813857</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.0303785944503021</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.0793173050380362</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7.1280807884361561</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.1766558285316115</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7.225029112320227</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7.2731872358840466</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.3211167105295472</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.3688039690834808</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.4162353723428796</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.4633972156754966</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.5102757357667302</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.5568571175088222</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.6031275010278945</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.6490729888441482</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.6946796531603043</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7.7399335432731506</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7.7848206931028239</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7.8293271288342208</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7.8734388766647401</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7.9171419706523078</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7.9604224606574636</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8.0032664203730501</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8.0456599554348802</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8.0875892116065362</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8.1290403830312989</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8.1699997205440074</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8.2104535400354894</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8.250388230862054</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8.2897902642923533</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8.3286462019838279</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8.3669427044807563</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8.40466653972587</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8.4418045915773288</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8.4783438683227743</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8.5142715111821019</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8.5495748027904597</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8.5842411756529788</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8.6182582205626304</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8.6516136949725819</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8.6842955313143939</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8.7162918452533589</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8.7475909438722947</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8.7781813337751</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>8.8080517291013862</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>8.837191059443553</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>8.8655884776576883</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>8.8932333675597484</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>8.9201153514985432</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8.9462242977971069</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>8.9715503280541622</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>8.9960838242974752</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9.0198154359810108</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9.0427360868179516</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9.0648369814417684</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9.0861096118877036</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9.1065457638871834</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9.1261375229678787</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9.1448772803522935</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9.1627577386480166</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9.1797719173229222</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9.1959131579589108</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9.211175129277942</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9.225551831934423</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9.2390376030682386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24F4-4740-97FF-BFB0102CE727}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1615533680"/>
+        <c:axId val="1615534096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1615533680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615534096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1615534096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615533680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A15C9845-0A8E-4C48-AC34-579A8EE4F62C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,25 +2515,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4438AFC2-B2D6-4E8A-9A8D-F841588B1EFE}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -459,10 +2554,10 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" s="1">
@@ -481,134 +2576,5066 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <f>A2</f>
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
-        <f>B2</f>
+      <c r="I6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H6">
-        <v>0</v>
+      <c r="J6" s="1">
+        <f>H6+$D$2</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="K6">
+        <f>I6+$D$2*I6*SIN(H6)</f>
+        <v>2.0084147098480791</v>
+      </c>
+      <c r="L6">
+        <f>$C$2*SIN(J6)*K6</f>
+        <v>1.6954273114458077E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H7">
-        <v>0</v>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <f>H6+$C$2</f>
+        <v>1.01</v>
+      </c>
+      <c r="I7" s="1">
+        <f>I6+L6</f>
+        <v>2.0169542731144583</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" ref="J7:J12" si="0">H7+$D$2</f>
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K12" si="1">I7+$D$2*I7*SIN(H7)</f>
+        <v>2.025494378652517</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L12" si="2">$C$2*SIN(J7)*K7</f>
+        <v>1.7206180823816628E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H8">
-        <v>0</v>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:H71" si="3">H7+$C$2</f>
+        <v>1.02</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ref="I8:I71" si="4">I7+L7</f>
+        <v>2.0341604539382749</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2.0428270761419398</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>1.74603328862039E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H9">
-        <v>0</v>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>1.03</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0516207868244787</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2.0604150489581934</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>1.7716733393096949E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H10">
-        <v>0</v>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.04</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0693375202175757</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>2.0782605473427203</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>1.7975385436560975E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H11">
-        <v>0</v>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>1.05</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0873129056541369</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>2.0963658241213694</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>1.8236291077450364E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H12">
-        <v>0</v>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.06</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1055491967315874</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>2.1147331336571669</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>1.8499451313123992E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H13">
-        <v>0</v>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>1.07</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1240486480447114</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" ref="J13:J76" si="5">H13+$D$2</f>
+        <v>1.075</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K76" si="6">I13+$D$2*I13*SIN(H13)</f>
+        <v>2.1333647307705554</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L76" si="7">$C$2*SIN(J13)*K13</f>
+        <v>1.8764866044686124E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H14">
-        <v>0</v>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="3"/>
+        <v>1.08</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1428135140893976</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="5"/>
+        <v>1.085</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>2.1522628696266461</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="7"/>
+        <v>1.9032534043765374E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H15">
-        <v>0</v>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1618460481331629</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="5"/>
+        <v>1.095</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>2.1714298025890186</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>1.9302452918845036E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23">
-        <v>0</v>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1811485010520082</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="5"/>
+        <v>1.105</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>2.1908677790396309</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>1.9574619081159417E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2007231201331674</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="5"/>
+        <v>1.115</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>2.2105790441644122</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>1.984902771017159E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2205721478433391</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="5"/>
+        <v>1.125</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>2.2305658377041322</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>2.0125672718649405E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1300000000000001</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2406978205619885</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="5"/>
+        <v>1.135</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>2.2508303926701427</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="7"/>
+        <v>2.0404546717357423E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2611023672793458</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="5"/>
+        <v>1.145</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>2.2713749340246303</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="7"/>
+        <v>2.0685640979383985E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2817880082587298</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="5"/>
+        <v>1.155</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>2.2922016773250169</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>2.0968945404123446E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3027569536628532</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="5"/>
+        <v>1.165</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>2.3133128273321728</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>2.1254448480935061E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1700000000000002</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3240114021437881</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="5"/>
+        <v>1.175</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>2.3347105765821357</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>2.1542137252501255E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>18</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1800000000000002</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3455535393962892</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>2.3563971039210427</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="7"/>
+        <v>2.1831997277909174E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>19</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1900000000000002</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3673855366741985</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>2.3783745730030126</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="7"/>
+        <v>2.2124012595480819E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3895095492696794</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>2.4006451307507359</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="7"/>
+        <v>2.2418165685378251E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>21</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4119277149550578</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>2.4232109057785678</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="7"/>
+        <v>2.2714437432011882E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>22</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2200000000000002</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4346421523870698</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>2.4460740067779398</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>2.3012807086281156E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>23</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2300000000000002</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4576549594733508</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>2.4692365208649285</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="7"/>
+        <v>2.3313252227678112E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>24</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="4"/>
+        <v>2.480968211701029</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>2.4927005118898777</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>2.3615748726286148E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5045839604273152</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2550000000000001</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>2.5164680187089665</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="7"/>
+        <v>2.3920270704707199E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>26</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2600000000000002</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5285042311320223</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2650000000000001</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="6"/>
+        <v>2.5405410534176802</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="7"/>
+        <v>2.4226790499952494E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>27</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2700000000000002</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="4"/>
+        <v>2.552731021631975</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2750000000000001</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>2.5649215995461665</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="7"/>
+        <v>2.4535278625333064E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>28</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2800000000000002</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5772663002573082</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2850000000000001</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="6"/>
+        <v>2.5896116102164854</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="7"/>
+        <v>2.4845703732387928E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>29</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2900000000000003</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6021120039896961</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2950000000000002</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="6"/>
+        <v>2.6146130062618202</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="7"/>
+        <v>2.5158032572889205E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>30</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6272700365625852</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3050000000000002</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="6"/>
+        <v>2.6399276743077413</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="7"/>
+        <v>2.5472229960964876E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>31</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3100000000000003</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6527422665235498</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3150000000000002</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="6"/>
+        <v>2.6655574648156604</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="7"/>
+        <v>2.578825873538149E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>32</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3200000000000003</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6785305252589313</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3250000000000002</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="6"/>
+        <v>2.6915041900886614</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="7"/>
+        <v>2.6106079722030513E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>33</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3300000000000003</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="4"/>
+        <v>2.704636604980962</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3350000000000002</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="6"/>
+        <v>2.7177696222399277</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="7"/>
+        <v>2.642565169666351E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>34</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3400000000000003</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7310622566776255</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3450000000000002</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="6"/>
+        <v>2.7443554911240415</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="7"/>
+        <v>2.6746931347922821E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>35</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3500000000000003</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7578091880255484</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3550000000000002</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="6"/>
+        <v>2.7712634822314759</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="7"/>
+        <v>2.7069873240716007E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>36</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3600000000000003</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7848790612662646</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3650000000000002</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="6"/>
+        <v>2.7984952345466425</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="7"/>
+        <v>2.7394429779983555E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>37</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3700000000000003</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8122734910462484</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3750000000000002</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="6"/>
+        <v>2.8260523383699176</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="7"/>
+        <v>2.7720551174911064E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>38</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3800000000000003</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8399940422211594</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3850000000000002</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="6"/>
+        <v>2.8539363331041159</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="7"/>
+        <v>2.8048185403638369E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>39</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3900000000000003</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8680422276247977</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3950000000000002</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="6"/>
+        <v>2.8821487050059358</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="7"/>
+        <v>2.8377278178519715E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>40</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8964195058033173</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4050000000000002</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="6"/>
+        <v>2.9106908849029534</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="7"/>
+        <v>2.8707772911990236E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>41</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4100000000000004</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9251272787153075</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4150000000000003</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="6"/>
+        <v>2.9395642458767988</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="7"/>
+        <v>2.9039610683095671E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>42</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4200000000000004</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9541668893984032</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4250000000000003</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="6"/>
+        <v>2.9687701009132126</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="7"/>
+        <v>2.9372730204743455E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>43</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4300000000000004</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9835396196031465</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4350000000000003</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="6"/>
+        <v>2.9983097005197252</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="7"/>
+        <v>2.970706779173465E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>44</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4400000000000004</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0132466873948811</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4450000000000003</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="6"/>
+        <v>3.0281842303117741</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="7"/>
+        <v>3.0042557329637686E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>45</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4500000000000004</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="4"/>
+        <v>3.043289244724519</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4550000000000003</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="6"/>
+        <v>3.0583948085681341</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="7"/>
+        <v>3.0379130244565872E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>46</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4600000000000004</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0736683749690847</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4650000000000003</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="6"/>
+        <v>3.088942483756588</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="7"/>
+        <v>3.0716715473922164E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>47</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4700000000000004</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="4"/>
+        <v>3.104385090443007</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4750000000000003</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="6"/>
+        <v>3.1198282320308484</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="7"/>
+        <v>3.1055239438175678E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>48</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4800000000000004</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="4"/>
+        <v>3.1354403298811828</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4850000000000003</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="6"/>
+        <v>3.1510529546997801</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="7"/>
+        <v>3.1394626013735639E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>49</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4900000000000004</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="4"/>
+        <v>3.1668349558949185</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4950000000000003</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="6"/>
+        <v>3.18261747567007</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="7"/>
+        <v>3.1734796506989689E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>50</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="4"/>
+        <v>3.1985697524019083</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5050000000000003</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="6"/>
+        <v>3.2145225388635299</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="7"/>
+        <v>3.2075669629574241E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>51</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5100000000000005</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2306454220314826</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5150000000000003</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="6"/>
+        <v>3.2467688056103006</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="7"/>
+        <v>3.2417161474945881E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>52</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5200000000000005</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2630625835064286</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5250000000000004</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="6"/>
+        <v>3.2793568520193039</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="7"/>
+        <v>3.2759185496323492E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>53</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5300000000000005</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2958217690027523</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5350000000000004</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="6"/>
+        <v>3.3122871663273297</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="7"/>
+        <v>3.310165248607181E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>54</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5400000000000005</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3289234214888239</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5450000000000004</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="6"/>
+        <v>3.345560146228252</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="7"/>
+        <v>3.34444705565978E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>55</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5500000000000005</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3623678920454219</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5550000000000004</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="6"/>
+        <v>3.3791760961839148</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="7"/>
+        <v>3.3787545122832038E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>56</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5600000000000005</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3961554371682539</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5650000000000004</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="6"/>
+        <v>3.4131352247183058</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="7"/>
+        <v>3.4130778886367744E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>57</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5700000000000005</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4302862160546215</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5750000000000004</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="6"/>
+        <v>3.4474376416967218</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="7"/>
+        <v>3.4474071821331075E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>58</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5800000000000005</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4647602878759525</v>
+      </c>
+      <c r="J64" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5850000000000004</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="6"/>
+        <v>3.4820833555916861</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="7"/>
+        <v>3.4817321162056207E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>59</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5900000000000005</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4995776090380089</v>
+      </c>
+      <c r="J65" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5950000000000004</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="6"/>
+        <v>3.5170722707374615</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="7"/>
+        <v>3.5160421392639502E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>60</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6000000000000005</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5347380304306482</v>
+      </c>
+      <c r="J66" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6050000000000004</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="6"/>
+        <v>3.5524041845750753</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="7"/>
+        <v>3.5503264238447255E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>61</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6100000000000005</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5702412946690956</v>
+      </c>
+      <c r="J67" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6150000000000004</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="6"/>
+        <v>3.5880787848898503</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="7"/>
+        <v>3.5845738659651592E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>62</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6200000000000006</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="4"/>
+        <v>3.6060870333287474</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6250000000000004</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="6"/>
+        <v>3.6240956470435015</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="7"/>
+        <v>3.6187730846869159E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>63</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6300000000000006</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" si="4"/>
+        <v>3.6422747641756166</v>
+      </c>
+      <c r="J69" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6350000000000005</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="6"/>
+        <v>3.6604542312029418</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="7"/>
+        <v>3.6529124218977437E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>64</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6400000000000006</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" si="4"/>
+        <v>3.6788038883945942</v>
+      </c>
+      <c r="J70" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6450000000000005</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="6"/>
+        <v>3.6971538795680154</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="7"/>
+        <v>3.6869799423183032E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>65</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6500000000000006</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7156736878177772</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6550000000000005</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="6"/>
+        <v>3.7341938136004371</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="7"/>
+        <v>3.7209634337416232E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>66</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" ref="H72:H135" si="8">H71+$C$2</f>
+        <v>1.6600000000000006</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" ref="I72:I135" si="9">I71+L71</f>
+        <v>3.7528833221551934</v>
+      </c>
+      <c r="J72" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6650000000000005</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="6"/>
+        <v>3.7715731312563148</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="7"/>
+        <v>3.7548504075125735E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>67</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6700000000000006</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" si="9"/>
+        <v>3.7904318262303192</v>
+      </c>
+      <c r="J73" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6750000000000005</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="6"/>
+        <v>3.8092908042246809</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="7"/>
+        <v>3.7886280992546768E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>68</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6800000000000006</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="9"/>
+        <v>3.828318107222866</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6850000000000005</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="6"/>
+        <v>3.8473456751745494</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="7"/>
+        <v>3.8222834698515361E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>69</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6900000000000006</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="9"/>
+        <v>3.8665409419213814</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6950000000000005</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="6"/>
+        <v>3.8857364550130744</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="7"/>
+        <v>3.8558032066900651E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>70</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="8"/>
+        <v>1.7000000000000006</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="9"/>
+        <v>3.9050989739882822</v>
+      </c>
+      <c r="J76" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7050000000000005</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="6"/>
+        <v>3.9244617201574732</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="7"/>
+        <v>3.8891737251726136E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>71</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="8"/>
+        <v>1.7100000000000006</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="9"/>
+        <v>3.9439907112400086</v>
+      </c>
+      <c r="J77" s="1">
+        <f t="shared" ref="J77:J140" si="10">H77+$D$2</f>
+        <v>1.7150000000000005</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ref="K77:K140" si="11">I77+$D$2*I77*SIN(H77)</f>
+        <v>3.9635199098234279</v>
+      </c>
+      <c r="L77">
+        <f t="shared" ref="L77:L140" si="12">$C$2*SIN(J77)*K77</f>
+        <v>3.9223811705049877E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>72</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="8"/>
+        <v>1.7200000000000006</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="9"/>
+        <v>3.9832145229450586</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" si="10"/>
+        <v>1.7250000000000005</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="11"/>
+        <v>4.0029093233327666</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="12"/>
+        <v>3.9554114197672317E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>73</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="8"/>
+        <v>1.7300000000000006</v>
+      </c>
+      <c r="I79" s="1">
+        <f t="shared" si="9"/>
+        <v>4.0227686371427307</v>
+      </c>
+      <c r="J79" s="1">
+        <f t="shared" si="10"/>
+        <v>1.7350000000000005</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="11"/>
+        <v>4.0426281174432832</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="12"/>
+        <v>3.9882500842739012E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>74</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="8"/>
+        <v>1.7400000000000007</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" si="9"/>
+        <v>4.06265113798547</v>
+      </c>
+      <c r="J80" s="1">
+        <f t="shared" si="10"/>
+        <v>1.7450000000000006</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="11"/>
+        <v>4.0826743037036222</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="12"/>
+        <v>4.0208825122304163E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>75</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="8"/>
+        <v>1.7500000000000007</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" si="9"/>
+        <v>4.1028599631077745</v>
+      </c>
+      <c r="J81" s="1">
+        <f t="shared" si="10"/>
+        <v>1.7550000000000006</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="11"/>
+        <v>4.1230457458362233</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="12"/>
+        <v>4.0532937916919178E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>76</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="8"/>
+        <v>1.7600000000000007</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" si="9"/>
+        <v>4.1433929010246935</v>
+      </c>
+      <c r="J82" s="1">
+        <f t="shared" si="10"/>
+        <v>1.7650000000000006</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="11"/>
+        <v>4.1637401571513877</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="12"/>
+        <v>4.0854687538308475E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>77</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="8"/>
+        <v>1.7700000000000007</v>
+      </c>
+      <c r="I83" s="1">
+        <f t="shared" si="9"/>
+        <v>4.1842475885630019</v>
+      </c>
+      <c r="J83" s="1">
+        <f t="shared" si="10"/>
+        <v>1.7750000000000006</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="11"/>
+        <v>4.2047550979955712</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="12"/>
+        <v>4.1173919765193079E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>78</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="8"/>
+        <v>1.7800000000000007</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" si="9"/>
+        <v>4.2254215083281954</v>
+      </c>
+      <c r="J84" s="1">
+        <f t="shared" si="10"/>
+        <v>1.7850000000000006</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="11"/>
+        <v>4.2460879732370973</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="12"/>
+        <v>4.1490477882320131E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>79</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="8"/>
+        <v>1.7900000000000007</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" si="9"/>
+        <v>4.2669119862105154</v>
+      </c>
+      <c r="J85" s="1">
+        <f t="shared" si="10"/>
+        <v>1.7950000000000006</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="11"/>
+        <v>4.2877360297925096</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="12"/>
+        <v>4.1804202722754258E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>80</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="8"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="9"/>
+        <v>4.3087161889332695</v>
+      </c>
+      <c r="J86" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8050000000000006</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="11"/>
+        <v>4.3296963541968658</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="12"/>
+        <v>4.2114932713484349E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>81</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="8"/>
+        <v>1.8100000000000007</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" si="9"/>
+        <v>4.3508311216467535</v>
+      </c>
+      <c r="J87" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8150000000000006</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="11"/>
+        <v>4.371965870221306</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="12"/>
+        <v>4.2422503924396407E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>82</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="8"/>
+        <v>1.8200000000000007</v>
+      </c>
+      <c r="I88" s="1">
+        <f t="shared" si="9"/>
+        <v>4.3932536255711501</v>
+      </c>
+      <c r="J88" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8250000000000006</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="11"/>
+        <v>4.4145413365412907</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="12"/>
+        <v>4.2726750120660718E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>83</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="8"/>
+        <v>1.8300000000000007</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" si="9"/>
+        <v>4.4359803756918108</v>
+      </c>
+      <c r="J89" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8350000000000006</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="11"/>
+        <v>4.4574193444589421</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="12"/>
+        <v>4.3027502818578117E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>84</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="8"/>
+        <v>1.8400000000000007</v>
+      </c>
+      <c r="I90" s="1">
+        <f t="shared" si="9"/>
+        <v>4.4790078785103891</v>
+      </c>
+      <c r="J90" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8450000000000006</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="11"/>
+        <v>4.5005963156829738</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="12"/>
+        <v>4.3324591344927464E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>85</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="8"/>
+        <v>1.8500000000000008</v>
+      </c>
+      <c r="I91" s="1">
+        <f t="shared" si="9"/>
+        <v>4.5223324698553169</v>
+      </c>
+      <c r="J91" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8550000000000006</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="11"/>
+        <v>4.5440685001697263</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="12"/>
+        <v>4.3617842899852738E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>86</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="8"/>
+        <v>1.8600000000000008</v>
+      </c>
+      <c r="I92" s="1">
+        <f t="shared" si="9"/>
+        <v>4.5659503127551693</v>
+      </c>
+      <c r="J92" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8650000000000007</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="11"/>
+        <v>4.587831974028874</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="12"/>
+        <v>4.3907082623325017E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>87</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" si="8"/>
+        <v>1.8700000000000008</v>
+      </c>
+      <c r="I93" s="1">
+        <f t="shared" si="9"/>
+        <v>4.6098573953784943</v>
+      </c>
+      <c r="J93" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8750000000000007</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="11"/>
+        <v>4.631882637497382</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="12"/>
+        <v>4.4192133665210589E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>88</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" si="8"/>
+        <v>1.8800000000000008</v>
+      </c>
+      <c r="I94" s="1">
+        <f t="shared" si="9"/>
+        <v>4.6540495290437045</v>
+      </c>
+      <c r="J94" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8850000000000007</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="11"/>
+        <v>4.6762162129853442</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="12"/>
+        <v>4.4472817258972855E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>89</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" si="8"/>
+        <v>1.8900000000000008</v>
+      </c>
+      <c r="I95" s="1">
+        <f t="shared" si="9"/>
+        <v>4.6985223463026777</v>
+      </c>
+      <c r="J95" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8950000000000007</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="11"/>
+        <v>4.7208282431973494</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="12"/>
+        <v>4.4748952799031752E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>90</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="8"/>
+        <v>1.9000000000000008</v>
+      </c>
+      <c r="I96" s="1">
+        <f t="shared" si="9"/>
+        <v>4.7432712991017096</v>
+      </c>
+      <c r="J96" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9050000000000007</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="11"/>
+        <v>4.7657140893330352</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="12"/>
+        <v>4.5020357921799967E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>91</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="8"/>
+        <v>1.9100000000000008</v>
+      </c>
+      <c r="I97" s="1">
+        <f t="shared" si="9"/>
+        <v>4.7882916570235095</v>
+      </c>
+      <c r="J97" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9150000000000007</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="11"/>
+        <v>4.8108689293705238</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="12"/>
+        <v>4.52868485904111E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>92</v>
+      </c>
+      <c r="H98" s="1">
+        <f t="shared" si="8"/>
+        <v>1.9200000000000008</v>
+      </c>
+      <c r="I98" s="1">
+        <f t="shared" si="9"/>
+        <v>4.8335785056139207</v>
+      </c>
+      <c r="J98" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9250000000000007</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="11"/>
+        <v>4.8562877564364344</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="12"/>
+        <v>4.5548239183150555E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>93</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" si="8"/>
+        <v>1.9300000000000008</v>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" si="9"/>
+        <v>4.8791267447970714</v>
+      </c>
+      <c r="J99" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9350000000000007</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="11"/>
+        <v>4.9019653772661806</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="12"/>
+        <v>4.5804342585594904E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>94</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="8"/>
+        <v>1.9400000000000008</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" si="9"/>
+        <v>4.9249310873826664</v>
+      </c>
+      <c r="J100" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9450000000000007</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="11"/>
+        <v>4.947896410758255</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="12"/>
+        <v>4.6054970286461029E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>95</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" si="8"/>
+        <v>1.9500000000000008</v>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" si="9"/>
+        <v>4.9709860576691272</v>
+      </c>
+      <c r="J101" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9550000000000007</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="11"/>
+        <v>4.9940752866262299</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="12"/>
+        <v>4.6299932477161382E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>96</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="8"/>
+        <v>1.9600000000000009</v>
+      </c>
+      <c r="I102" s="1">
+        <f t="shared" si="9"/>
+        <v>5.0172859901462887</v>
+      </c>
+      <c r="J102" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9650000000000007</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="11"/>
+        <v>5.040496244152151</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="12"/>
+        <v>4.6539038155056119E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>97</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="8"/>
+        <v>1.9700000000000009</v>
+      </c>
+      <c r="I103" s="1">
+        <f t="shared" si="9"/>
+        <v>5.0638250283013448</v>
+      </c>
+      <c r="J103" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9750000000000008</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="11"/>
+        <v>5.0871533310450356</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="12"/>
+        <v>4.6772095230388409E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>98</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" si="8"/>
+        <v>1.9800000000000009</v>
+      </c>
+      <c r="I104" s="1">
+        <f t="shared" si="9"/>
+        <v>5.1105971235317336</v>
+      </c>
+      <c r="J104" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9850000000000008</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="11"/>
+        <v>5.1340404024081439</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="12"/>
+        <v>4.6998910636883051E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>99</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="8"/>
+        <v>1.9900000000000009</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="9"/>
+        <v>5.1575960341686162</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9950000000000008</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="11"/>
+        <v>5.1811511198186668</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="12"/>
+        <v>4.721929044598356E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>100</v>
+      </c>
+      <c r="H106" s="1">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="I106" s="1">
+        <f t="shared" si="9"/>
+        <v>5.2048153246146001</v>
+      </c>
+      <c r="J106" s="1">
+        <f t="shared" si="10"/>
+        <v>2.0050000000000008</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="11"/>
+        <v>5.228478950523475</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="12"/>
+        <v>4.7433039984696973E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>101</v>
+      </c>
+      <c r="H107" s="1">
+        <f t="shared" si="8"/>
+        <v>2.0100000000000007</v>
+      </c>
+      <c r="I107" s="1">
+        <f t="shared" si="9"/>
+        <v>5.2522483645992972</v>
+      </c>
+      <c r="J107" s="1">
+        <f t="shared" si="10"/>
+        <v>2.0150000000000006</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="11"/>
+        <v>5.2760171667544924</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="12"/>
+        <v>4.763996395700984E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>102</v>
+      </c>
+      <c r="H108" s="1">
+        <f t="shared" si="8"/>
+        <v>2.0200000000000005</v>
+      </c>
+      <c r="I108" s="1">
+        <f t="shared" si="9"/>
+        <v>5.2998883285563068</v>
+      </c>
+      <c r="J108" s="1">
+        <f t="shared" si="10"/>
+        <v>2.0250000000000004</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="11"/>
+        <v>5.3237588451672755</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="12"/>
+        <v>4.7839866568833225E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>103</v>
+      </c>
+      <c r="H109" s="1">
+        <f t="shared" si="8"/>
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="I109" s="1">
+        <f t="shared" si="9"/>
+        <v>5.3477281951251401</v>
+      </c>
+      <c r="J109" s="1">
+        <f t="shared" si="10"/>
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="11"/>
+        <v>5.371696866406281</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="12"/>
+        <v>4.803255165642828E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>104</v>
+      </c>
+      <c r="H110" s="1">
+        <f t="shared" si="8"/>
+        <v>2.04</v>
+      </c>
+      <c r="I110" s="1">
+        <f t="shared" si="9"/>
+        <v>5.3957607467815683</v>
+      </c>
+      <c r="J110" s="1">
+        <f t="shared" si="10"/>
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="11"/>
+        <v>5.4198239148002889</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="12"/>
+        <v>4.8217822818257976E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>105</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" si="8"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I111" s="1">
+        <f t="shared" si="9"/>
+        <v>5.4439785695998264</v>
+      </c>
+      <c r="J111" s="1">
+        <f t="shared" si="10"/>
+        <v>2.0549999999999997</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="11"/>
+        <v>5.4681324781913734</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="12"/>
+        <v>4.8395483550204489E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <v>106</v>
+      </c>
+      <c r="H112" s="1">
+        <f t="shared" si="8"/>
+        <v>2.0599999999999996</v>
+      </c>
+      <c r="I112" s="1">
+        <f t="shared" si="9"/>
+        <v>5.4923740531500309</v>
+      </c>
+      <c r="J112" s="1">
+        <f t="shared" si="10"/>
+        <v>2.0649999999999995</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="11"/>
+        <v>5.5166148479007635</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="12"/>
+        <v>4.8565337384085319E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>107</v>
+      </c>
+      <c r="H113" s="1">
+        <f t="shared" si="8"/>
+        <v>2.0699999999999994</v>
+      </c>
+      <c r="I113" s="1">
+        <f t="shared" si="9"/>
+        <v>5.540939390534116</v>
+      </c>
+      <c r="J113" s="1">
+        <f t="shared" si="10"/>
+        <v>2.0749999999999993</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="11"/>
+        <v>5.5652631188348405</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="12"/>
+        <v>4.8727188029395033E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <v>108</v>
+      </c>
+      <c r="H114" s="1">
+        <f t="shared" si="8"/>
+        <v>2.0799999999999992</v>
+      </c>
+      <c r="I114" s="1">
+        <f t="shared" si="9"/>
+        <v>5.5896665785635111</v>
+      </c>
+      <c r="J114" s="1">
+        <f t="shared" si="10"/>
+        <v>2.0849999999999991</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="11"/>
+        <v>5.6140691897344848</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="12"/>
+        <v>4.8880839518193026E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <v>109</v>
+      </c>
+      <c r="H115" s="1">
+        <f t="shared" si="8"/>
+        <v>2.089999999999999</v>
+      </c>
+      <c r="I115" s="1">
+        <f t="shared" si="9"/>
+        <v>5.6385474180817043</v>
+      </c>
+      <c r="J115" s="1">
+        <f t="shared" si="10"/>
+        <v>2.0949999999999989</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="11"/>
+        <v>5.6630247635708448</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="12"/>
+        <v>4.9026096353051364E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <v>110</v>
+      </c>
+      <c r="H116" s="1">
+        <f t="shared" si="8"/>
+        <v>2.0999999999999988</v>
+      </c>
+      <c r="I116" s="1">
+        <f t="shared" si="9"/>
+        <v>5.6875735144347557</v>
+      </c>
+      <c r="J116" s="1">
+        <f t="shared" si="10"/>
+        <v>2.1049999999999986</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="11"/>
+        <v>5.7121213480905766</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="12"/>
+        <v>4.9162763657970093E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <v>111</v>
+      </c>
+      <c r="H117" s="1">
+        <f t="shared" si="8"/>
+        <v>2.1099999999999985</v>
+      </c>
+      <c r="I117" s="1">
+        <f t="shared" si="9"/>
+        <v>5.7367362780927253</v>
+      </c>
+      <c r="J117" s="1">
+        <f t="shared" si="10"/>
+        <v>2.1149999999999984</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="11"/>
+        <v>5.7613502565134462</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="12"/>
+        <v>4.9290647332161257E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <v>112</v>
+      </c>
+      <c r="H118" s="1">
+        <f t="shared" si="8"/>
+        <v>2.1199999999999983</v>
+      </c>
+      <c r="I118" s="1">
+        <f t="shared" si="9"/>
+        <v>5.7860269254248866</v>
+      </c>
+      <c r="J118" s="1">
+        <f t="shared" si="10"/>
+        <v>2.1249999999999982</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="11"/>
+        <v>5.8107026083851361</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="12"/>
+        <v>4.9409554206595853E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <v>113</v>
+      </c>
+      <c r="H119" s="1">
+        <f t="shared" si="8"/>
+        <v>2.1299999999999981</v>
+      </c>
+      <c r="I119" s="1">
+        <f t="shared" si="9"/>
+        <v>5.8354364796314826</v>
+      </c>
+      <c r="J119" s="1">
+        <f t="shared" si="10"/>
+        <v>2.134999999999998</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="11"/>
+        <v>5.8601693305879357</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="12"/>
+        <v>4.9519292203201733E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <v>114</v>
+      </c>
+      <c r="H120" s="1">
+        <f t="shared" si="8"/>
+        <v>2.1399999999999979</v>
+      </c>
+      <c r="I120" s="1">
+        <f t="shared" si="9"/>
+        <v>5.8849557718346848</v>
+      </c>
+      <c r="J120" s="1">
+        <f t="shared" si="10"/>
+        <v>2.1449999999999978</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="11"/>
+        <v>5.9097411585119453</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="12"/>
+        <v>4.9619670496593993E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <v>115</v>
+      </c>
+      <c r="H121" s="1">
+        <f t="shared" si="8"/>
+        <v>2.1499999999999977</v>
+      </c>
+      <c r="I121" s="1">
+        <f t="shared" si="9"/>
+        <v>5.9345754423312789</v>
+      </c>
+      <c r="J121" s="1">
+        <f t="shared" si="10"/>
+        <v>2.1549999999999976</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="11"/>
+        <v>5.9594086373892265</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="12"/>
+        <v>4.9710499678212505E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <v>116</v>
+      </c>
+      <c r="H122" s="1">
+        <f t="shared" si="8"/>
+        <v>2.1599999999999975</v>
+      </c>
+      <c r="I122" s="1">
+        <f t="shared" si="9"/>
+        <v>5.9842859420094916</v>
+      </c>
+      <c r="J122" s="1">
+        <f t="shared" si="10"/>
+        <v>2.1649999999999974</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="11"/>
+        <v>6.0091621237932769</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="12"/>
+        <v>4.9791591922735211E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <v>117</v>
+      </c>
+      <c r="H123" s="1">
+        <f t="shared" si="8"/>
+        <v>2.1699999999999973</v>
+      </c>
+      <c r="I123" s="1">
+        <f t="shared" si="9"/>
+        <v>6.0340775339322272</v>
+      </c>
+      <c r="J123" s="1">
+        <f t="shared" si="10"/>
+        <v>2.1749999999999972</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="11"/>
+        <v>6.0589917873060122</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="12"/>
+        <v>4.9862761156628937E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <v>118</v>
+      </c>
+      <c r="H124" s="1">
+        <f t="shared" si="8"/>
+        <v>2.1799999999999971</v>
+      </c>
+      <c r="I124" s="1">
+        <f t="shared" si="9"/>
+        <v>6.0839402950888566</v>
+      </c>
+      <c r="J124" s="1">
+        <f t="shared" si="10"/>
+        <v>2.1849999999999969</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="11"/>
+        <v>6.1088876123543319</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="12"/>
+        <v>4.9923823228693445E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <v>119</v>
+      </c>
+      <c r="H125" s="1">
+        <f t="shared" si="8"/>
+        <v>2.1899999999999968</v>
+      </c>
+      <c r="I125" s="1">
+        <f t="shared" si="9"/>
+        <v>6.1338641183175504</v>
+      </c>
+      <c r="J125" s="1">
+        <f t="shared" si="10"/>
+        <v>2.1949999999999967</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="11"/>
+        <v>6.1588394002181968</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="12"/>
+        <v>4.9974596082447996E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <v>120</v>
+      </c>
+      <c r="H126" s="1">
+        <f t="shared" si="8"/>
+        <v>2.1999999999999966</v>
+      </c>
+      <c r="I126" s="1">
+        <f t="shared" si="9"/>
+        <v>6.1838387143999984</v>
+      </c>
+      <c r="J126" s="1">
+        <f t="shared" si="10"/>
+        <v>2.2049999999999965</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="11"/>
+        <v>6.2088367712119625</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="12"/>
+        <v>5.0014899930203305E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <v>121</v>
+      </c>
+      <c r="H127" s="1">
+        <f t="shared" si="8"/>
+        <v>2.2099999999999964</v>
+      </c>
+      <c r="I127" s="1">
+        <f t="shared" si="9"/>
+        <v>6.2338536143302017</v>
+      </c>
+      <c r="J127" s="1">
+        <f t="shared" si="10"/>
+        <v>2.2149999999999963</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="11"/>
+        <v>6.2588691670405971</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="12"/>
+        <v>5.0044557428655947E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <v>122</v>
+      </c>
+      <c r="H128" s="1">
+        <f t="shared" si="8"/>
+        <v>2.2199999999999962</v>
+      </c>
+      <c r="I128" s="1">
+        <f t="shared" si="9"/>
+        <v>6.2838981717588576</v>
+      </c>
+      <c r="J128" s="1">
+        <f t="shared" si="10"/>
+        <v>2.2249999999999961</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="11"/>
+        <v>6.3089258533322106</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="12"/>
+        <v>5.0063393855836094E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <v>123</v>
+      </c>
+      <c r="H129" s="1">
+        <f t="shared" si="8"/>
+        <v>2.229999999999996</v>
+      </c>
+      <c r="I129" s="1">
+        <f t="shared" si="9"/>
+        <v>6.3339615656146933</v>
+      </c>
+      <c r="J129" s="1">
+        <f t="shared" si="10"/>
+        <v>2.2349999999999959</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="11"/>
+        <v>6.3589959223481571</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="12"/>
+        <v>5.0071237289233454E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <v>124</v>
+      </c>
+      <c r="H130" s="1">
+        <f t="shared" si="8"/>
+        <v>2.2399999999999958</v>
+      </c>
+      <c r="I130" s="1">
+        <f t="shared" si="9"/>
+        <v>6.3840328029039268</v>
+      </c>
+      <c r="J130" s="1">
+        <f t="shared" si="10"/>
+        <v>2.2449999999999957</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="11"/>
+        <v>6.4090682958718217</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="12"/>
+        <v>5.006791878492086E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <v>125</v>
+      </c>
+      <c r="H131" s="1">
+        <f t="shared" si="8"/>
+        <v>2.2499999999999956</v>
+      </c>
+      <c r="I131" s="1">
+        <f t="shared" si="9"/>
+        <v>6.4341007216888473</v>
+      </c>
+      <c r="J131" s="1">
+        <f t="shared" si="10"/>
+        <v>2.2549999999999955</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="11"/>
+        <v>6.4591317282769642</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="12"/>
+        <v>5.0053272557489009E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <v>126</v>
+      </c>
+      <c r="H132" s="1">
+        <f t="shared" si="8"/>
+        <v>2.2599999999999953</v>
+      </c>
+      <c r="I132" s="1">
+        <f t="shared" si="9"/>
+        <v>6.484153994246336</v>
+      </c>
+      <c r="J132" s="1">
+        <f t="shared" si="10"/>
+        <v>2.2649999999999952</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="11"/>
+        <v>6.5091748097763764</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="12"/>
+        <v>5.0027136160600796E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>127</v>
+      </c>
+      <c r="H133" s="1">
+        <f t="shared" si="8"/>
+        <v>2.2699999999999951</v>
+      </c>
+      <c r="I133" s="1">
+        <f t="shared" si="9"/>
+        <v>6.534181130406937</v>
+      </c>
+      <c r="J133" s="1">
+        <f t="shared" si="10"/>
+        <v>2.274999999999995</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="11"/>
+        <v>6.5591859698513382</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="12"/>
+        <v>4.9989350667968092E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>128</v>
+      </c>
+      <c r="H134" s="1">
+        <f t="shared" si="8"/>
+        <v>2.2799999999999949</v>
+      </c>
+      <c r="I134" s="1">
+        <f t="shared" si="9"/>
+        <v>6.5841704810749055</v>
+      </c>
+      <c r="J134" s="1">
+        <f t="shared" si="10"/>
+        <v>2.2849999999999948</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="11"/>
+        <v>6.6091534808622159</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="12"/>
+        <v>4.9939760854549063E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>129</v>
+      </c>
+      <c r="H135" s="1">
+        <f t="shared" si="8"/>
+        <v>2.2899999999999947</v>
+      </c>
+      <c r="I135" s="1">
+        <f t="shared" si="9"/>
+        <v>6.6341102419294549</v>
+      </c>
+      <c r="J135" s="1">
+        <f t="shared" si="10"/>
+        <v>2.2949999999999946</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="11"/>
+        <v>6.6590654618403216</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="12"/>
+        <v>4.98782153777593E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>130</v>
+      </c>
+      <c r="H136" s="1">
+        <f t="shared" ref="H136:H199" si="13">H135+$C$2</f>
+        <v>2.2999999999999945</v>
+      </c>
+      <c r="I136" s="1">
+        <f t="shared" ref="I136:I199" si="14">I135+L135</f>
+        <v>6.6839884573072146</v>
+      </c>
+      <c r="J136" s="1">
+        <f t="shared" si="10"/>
+        <v>2.3049999999999944</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="11"/>
+        <v>6.7089098824609295</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="12"/>
+        <v>4.9804566958485209E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>131</v>
+      </c>
+      <c r="H137" s="1">
+        <f t="shared" si="13"/>
+        <v>2.3099999999999943</v>
+      </c>
+      <c r="I137" s="1">
+        <f t="shared" si="14"/>
+        <v>6.7337930242657</v>
+      </c>
+      <c r="J137" s="1">
+        <f t="shared" si="10"/>
+        <v>2.3149999999999942</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="11"/>
+        <v>6.7586745671971622</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="12"/>
+        <v>4.9718672561684156E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>132</v>
+      </c>
+      <c r="H138" s="1">
+        <f t="shared" si="13"/>
+        <v>2.3199999999999941</v>
+      </c>
+      <c r="I138" s="1">
+        <f t="shared" si="14"/>
+        <v>6.7835116968273841</v>
+      </c>
+      <c r="J138" s="1">
+        <f t="shared" si="10"/>
+        <v>2.324999999999994</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="11"/>
+        <v>6.8083471996542047</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="12"/>
+        <v>4.9620393576351375E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>133</v>
+      </c>
+      <c r="H139" s="1">
+        <f t="shared" si="13"/>
+        <v>2.3299999999999939</v>
+      </c>
+      <c r="I139" s="1">
+        <f t="shared" si="14"/>
+        <v>6.8331320904037351</v>
+      </c>
+      <c r="J139" s="1">
+        <f t="shared" si="10"/>
+        <v>2.3349999999999937</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="11"/>
+        <v>6.8579153270831226</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="12"/>
+        <v>4.9509595994630264E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <v>134</v>
+      </c>
+      <c r="H140" s="1">
+        <f t="shared" si="13"/>
+        <v>2.3399999999999936</v>
+      </c>
+      <c r="I140" s="1">
+        <f t="shared" si="14"/>
+        <v>6.8826416863983653</v>
+      </c>
+      <c r="J140" s="1">
+        <f t="shared" si="10"/>
+        <v>2.3449999999999935</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="11"/>
+        <v>6.907366365073301</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="12"/>
+        <v>4.9386150589838793E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <v>135</v>
+      </c>
+      <c r="H141" s="1">
+        <f t="shared" si="13"/>
+        <v>2.3499999999999934</v>
+      </c>
+      <c r="I141" s="1">
+        <f t="shared" si="14"/>
+        <v>6.9320278369882038</v>
+      </c>
+      <c r="J141" s="1">
+        <f t="shared" ref="J141:J204" si="15">H141+$D$2</f>
+        <v>2.3549999999999933</v>
+      </c>
+      <c r="K141">
+        <f t="shared" ref="K141:K204" si="16">I141+$D$2*I141*SIN(H141)</f>
+        <v>6.9566876024223117</v>
+      </c>
+      <c r="L141">
+        <f t="shared" ref="L141:L204" si="17">$C$2*SIN(J141)*K141</f>
+        <v>4.9249933093181916E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>136</v>
+      </c>
+      <c r="H142" s="1">
+        <f t="shared" si="13"/>
+        <v>2.3599999999999932</v>
+      </c>
+      <c r="I142" s="1">
+        <f t="shared" si="14"/>
+        <v>6.9812777700813857</v>
+      </c>
+      <c r="J142" s="1">
+        <f t="shared" si="15"/>
+        <v>2.3649999999999931</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="16"/>
+        <v>7.0058662061817722</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="17"/>
+        <v>4.9100824368916579E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <v>137</v>
+      </c>
+      <c r="H143" s="1">
+        <f t="shared" si="13"/>
+        <v>2.369999999999993</v>
+      </c>
+      <c r="I143" s="1">
+        <f t="shared" si="14"/>
+        <v>7.0303785944503021</v>
+      </c>
+      <c r="J143" s="1">
+        <f t="shared" si="15"/>
+        <v>2.3749999999999929</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="16"/>
+        <v>7.0548892268775489</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="17"/>
+        <v>4.8938710587733816E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>138</v>
+      </c>
+      <c r="H144" s="1">
+        <f t="shared" si="13"/>
+        <v>2.3799999999999928</v>
+      </c>
+      <c r="I144" s="1">
+        <f t="shared" si="14"/>
+        <v>7.0793173050380362</v>
+      </c>
+      <c r="J144" s="1">
+        <f t="shared" si="15"/>
+        <v>2.3849999999999927</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="16"/>
+        <v>7.1037436039023785</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="17"/>
+        <v>4.87634833981197E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <v>139</v>
+      </c>
+      <c r="H145" s="1">
+        <f t="shared" si="13"/>
+        <v>2.3899999999999926</v>
+      </c>
+      <c r="I145" s="1">
+        <f t="shared" si="14"/>
+        <v>7.1280807884361561</v>
+      </c>
+      <c r="J145" s="1">
+        <f t="shared" si="15"/>
+        <v>2.3949999999999925</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="16"/>
+        <v>7.1524161710787872</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="17"/>
+        <v>4.8575040095455463E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <v>140</v>
+      </c>
+      <c r="H146" s="1">
+        <f t="shared" si="13"/>
+        <v>2.3999999999999924</v>
+      </c>
+      <c r="I146" s="1">
+        <f t="shared" si="14"/>
+        <v>7.1766558285316115</v>
+      </c>
+      <c r="J146" s="1">
+        <f t="shared" si="15"/>
+        <v>2.4049999999999923</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="16"/>
+        <v>7.200893662389916</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="17"/>
+        <v>4.8373283788615364E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <v>141</v>
+      </c>
+      <c r="H147" s="1">
+        <f t="shared" si="13"/>
+        <v>2.4099999999999921</v>
+      </c>
+      <c r="I147" s="1">
+        <f t="shared" si="14"/>
+        <v>7.225029112320227</v>
+      </c>
+      <c r="J147" s="1">
+        <f t="shared" si="15"/>
+        <v>2.414999999999992</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="16"/>
+        <v>7.2491627178756399</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="17"/>
+        <v>4.8158123563819863E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <v>142</v>
+      </c>
+      <c r="H148" s="1">
+        <f t="shared" si="13"/>
+        <v>2.4199999999999919</v>
+      </c>
+      <c r="I148" s="1">
+        <f t="shared" si="14"/>
+        <v>7.2731872358840466</v>
+      </c>
+      <c r="J148" s="1">
+        <f t="shared" si="15"/>
+        <v>2.4249999999999918</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="16"/>
+        <v>7.2972098896910911</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="17"/>
+        <v>4.7929474645500549E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <v>143</v>
+      </c>
+      <c r="H149" s="1">
+        <f t="shared" si="13"/>
+        <v>2.4299999999999917</v>
+      </c>
+      <c r="I149" s="1">
+        <f t="shared" si="14"/>
+        <v>7.3211167105295472</v>
+      </c>
+      <c r="J149" s="1">
+        <f t="shared" si="15"/>
+        <v>2.4349999999999916</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="16"/>
+        <v>7.3450216483245097</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="17"/>
+        <v>4.7687258553933742E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <v>144</v>
+      </c>
+      <c r="H150" s="1">
+        <f t="shared" si="13"/>
+        <v>2.4399999999999915</v>
+      </c>
+      <c r="I150" s="1">
+        <f t="shared" si="14"/>
+        <v>7.3688039690834808</v>
+      </c>
+      <c r="J150" s="1">
+        <f t="shared" si="15"/>
+        <v>2.4449999999999914</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="16"/>
+        <v>7.3925843889710396</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="17"/>
+        <v>4.7431403259398618E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>145</v>
+      </c>
+      <c r="H151" s="1">
+        <f t="shared" si="13"/>
+        <v>2.4499999999999913</v>
+      </c>
+      <c r="I151" s="1">
+        <f t="shared" si="14"/>
+        <v>7.4162353723428796</v>
+      </c>
+      <c r="J151" s="1">
+        <f t="shared" si="15"/>
+        <v>2.4549999999999912</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="16"/>
+        <v>7.439884438058888</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="17"/>
+        <v>4.7161843332617151E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>146</v>
+      </c>
+      <c r="H152" s="1">
+        <f t="shared" si="13"/>
+        <v>2.4599999999999911</v>
+      </c>
+      <c r="I152" s="1">
+        <f t="shared" si="14"/>
+        <v>7.4633972156754966</v>
+      </c>
+      <c r="J152" s="1">
+        <f t="shared" si="15"/>
+        <v>2.464999999999991</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="16"/>
+        <v>7.486908059924005</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="17"/>
+        <v>4.6878520091233458E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <v>147</v>
+      </c>
+      <c r="H153" s="1">
+        <f t="shared" si="13"/>
+        <v>2.4699999999999909</v>
+      </c>
+      <c r="I153" s="1">
+        <f t="shared" si="14"/>
+        <v>7.5102757357667302</v>
+      </c>
+      <c r="J153" s="1">
+        <f t="shared" si="15"/>
+        <v>2.4749999999999908</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="16"/>
+        <v>7.5336414636292028</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="17"/>
+        <v>4.6581381742091546E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <v>148</v>
+      </c>
+      <c r="H154" s="1">
+        <f t="shared" si="13"/>
+        <v>2.4799999999999907</v>
+      </c>
+      <c r="I154" s="1">
+        <f t="shared" si="14"/>
+        <v>7.5568571175088222</v>
+      </c>
+      <c r="J154" s="1">
+        <f t="shared" si="15"/>
+        <v>2.4849999999999905</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="16"/>
+        <v>7.5800708099233889</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="17"/>
+        <v>4.6270383519072499E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <v>149</v>
+      </c>
+      <c r="H155" s="1">
+        <f t="shared" si="13"/>
+        <v>2.4899999999999904</v>
+      </c>
+      <c r="I155" s="1">
+        <f t="shared" si="14"/>
+        <v>7.6031275010278945</v>
+      </c>
+      <c r="J155" s="1">
+        <f t="shared" si="15"/>
+        <v>2.4949999999999903</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="16"/>
+        <v>7.6261822183363597</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="17"/>
+        <v>4.5945487816253634E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <v>150</v>
+      </c>
+      <c r="H156" s="1">
+        <f t="shared" si="13"/>
+        <v>2.4999999999999902</v>
+      </c>
+      <c r="I156" s="1">
+        <f t="shared" si="14"/>
+        <v>7.6490729888441482</v>
+      </c>
+      <c r="J156" s="1">
+        <f t="shared" si="15"/>
+        <v>2.5049999999999901</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="16"/>
+        <v>7.6719617744043545</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="17"/>
+        <v>4.5606664316155759E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>151</v>
+      </c>
+      <c r="H157" s="1">
+        <f t="shared" si="13"/>
+        <v>2.50999999999999</v>
+      </c>
+      <c r="I157" s="1">
+        <f t="shared" si="14"/>
+        <v>7.6946796531603043</v>
+      </c>
+      <c r="J157" s="1">
+        <f t="shared" si="15"/>
+        <v>2.5149999999999899</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="16"/>
+        <v>7.7173955370213436</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="17"/>
+        <v>4.525389011284664E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>152</v>
+      </c>
+      <c r="H158" s="1">
+        <f t="shared" si="13"/>
+        <v>2.5199999999999898</v>
+      </c>
+      <c r="I158" s="1">
+        <f t="shared" si="14"/>
+        <v>7.7399335432731506</v>
+      </c>
+      <c r="J158" s="1">
+        <f t="shared" si="15"/>
+        <v>2.5249999999999897</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="16"/>
+        <v>7.762469545910788</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="17"/>
+        <v>4.4887149829672963E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>153</v>
+      </c>
+      <c r="H159" s="1">
+        <f t="shared" si="13"/>
+        <v>2.5299999999999896</v>
+      </c>
+      <c r="I159" s="1">
+        <f t="shared" si="14"/>
+        <v>7.7848206931028239</v>
+      </c>
+      <c r="J159" s="1">
+        <f t="shared" si="15"/>
+        <v>2.5349999999999895</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="16"/>
+        <v>7.8071698292123939</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="17"/>
+        <v>4.4506435731397148E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>154</v>
+      </c>
+      <c r="H160" s="1">
+        <f t="shared" si="13"/>
+        <v>2.5399999999999894</v>
+      </c>
+      <c r="I160" s="1">
+        <f t="shared" si="14"/>
+        <v>7.8293271288342208</v>
+      </c>
+      <c r="J160" s="1">
+        <f t="shared" si="15"/>
+        <v>2.5449999999999893</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="16"/>
+        <v>7.8514824111781447</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="17"/>
+        <v>4.4111747830518973E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>155</v>
+      </c>
+      <c r="H161" s="1">
+        <f t="shared" si="13"/>
+        <v>2.5499999999999892</v>
+      </c>
+      <c r="I161" s="1">
+        <f t="shared" si="14"/>
+        <v>7.8734388766647401</v>
+      </c>
+      <c r="J161" s="1">
+        <f t="shared" si="15"/>
+        <v>2.5549999999999891</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="16"/>
+        <v>7.8953933199717028</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="17"/>
+        <v>4.3703093987567741E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <v>156</v>
+      </c>
+      <c r="H162" s="1">
+        <f t="shared" si="13"/>
+        <v>2.559999999999989</v>
+      </c>
+      <c r="I162" s="1">
+        <f t="shared" si="14"/>
+        <v>7.9171419706523078</v>
+      </c>
+      <c r="J162" s="1">
+        <f t="shared" si="15"/>
+        <v>2.5649999999999888</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="16"/>
+        <v>7.9388885955650244</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="17"/>
+        <v>4.3280490005155339E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <v>157</v>
+      </c>
+      <c r="H163" s="1">
+        <f t="shared" si="13"/>
+        <v>2.5699999999999887</v>
+      </c>
+      <c r="I163" s="1">
+        <f t="shared" si="14"/>
+        <v>7.9604224606574636</v>
+      </c>
+      <c r="J163" s="1">
+        <f t="shared" si="15"/>
+        <v>2.5749999999999886</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="16"/>
+        <v>7.981954297725868</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="17"/>
+        <v>4.2843959715586716E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>158</v>
+      </c>
+      <c r="H164" s="1">
+        <f t="shared" si="13"/>
+        <v>2.5799999999999885</v>
+      </c>
+      <c r="I164" s="1">
+        <f t="shared" si="14"/>
+        <v>8.0032664203730501</v>
+      </c>
+      <c r="J164" s="1">
+        <f t="shared" si="15"/>
+        <v>2.5849999999999884</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="16"/>
+        <v>8.0245765140896328</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="17"/>
+        <v>4.2393535061830107E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>159</v>
+      </c>
+      <c r="H165" s="1">
+        <f t="shared" si="13"/>
+        <v>2.5899999999999883</v>
+      </c>
+      <c r="I165" s="1">
+        <f t="shared" si="14"/>
+        <v>8.0456599554348802</v>
+      </c>
+      <c r="J165" s="1">
+        <f t="shared" si="15"/>
+        <v>2.5949999999999882</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="16"/>
+        <v>8.0667413683088078</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="17"/>
+        <v>4.1929256171656312E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <v>160</v>
+      </c>
+      <c r="H166" s="1">
+        <f t="shared" si="13"/>
+        <v>2.5999999999999881</v>
+      </c>
+      <c r="I166" s="1">
+        <f t="shared" si="14"/>
+        <v>8.0875892116065362</v>
+      </c>
+      <c r="J166" s="1">
+        <f t="shared" si="15"/>
+        <v>2.604999999999988</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="16"/>
+        <v>8.1084350282730941</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="17"/>
+        <v>4.1451171424763004E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>161</v>
+      </c>
+      <c r="H167" s="1">
+        <f t="shared" si="13"/>
+        <v>2.6099999999999879</v>
+      </c>
+      <c r="I167" s="1">
+        <f t="shared" si="14"/>
+        <v>8.1290403830312989</v>
+      </c>
+      <c r="J167" s="1">
+        <f t="shared" si="15"/>
+        <v>2.6149999999999878</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="16"/>
+        <v>8.1496437143930986</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="17"/>
+        <v>4.095933751270793E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>162</v>
+      </c>
+      <c r="H168" s="1">
+        <f t="shared" si="13"/>
+        <v>2.6199999999999877</v>
+      </c>
+      <c r="I168" s="1">
+        <f t="shared" si="14"/>
+        <v>8.1699997205440074</v>
+      </c>
+      <c r="J168" s="1">
+        <f t="shared" si="15"/>
+        <v>2.6249999999999876</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="16"/>
+        <v>8.1903537079403197</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="17"/>
+        <v>4.0453819491482232E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>163</v>
+      </c>
+      <c r="H169" s="1">
+        <f t="shared" si="13"/>
+        <v>2.6299999999999875</v>
+      </c>
+      <c r="I169" s="1">
+        <f t="shared" si="14"/>
+        <v>8.2104535400354894</v>
+      </c>
+      <c r="J169" s="1">
+        <f t="shared" si="15"/>
+        <v>2.6349999999999874</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="16"/>
+        <v>8.2305513594360029</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="17"/>
+        <v>3.9934690826563937E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>164</v>
+      </c>
+      <c r="H170" s="1">
+        <f t="shared" si="13"/>
+        <v>2.6399999999999872</v>
+      </c>
+      <c r="I170" s="1">
+        <f t="shared" si="14"/>
+        <v>8.250388230862054</v>
+      </c>
+      <c r="J170" s="1">
+        <f t="shared" si="15"/>
+        <v>2.6449999999999871</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="16"/>
+        <v>8.270223097081228</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="17"/>
+        <v>3.94020334303E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>165</v>
+      </c>
+      <c r="H171" s="1">
+        <f t="shared" si="13"/>
+        <v>2.649999999999987</v>
+      </c>
+      <c r="I171" s="1">
+        <f t="shared" si="14"/>
+        <v>8.2897902642923533</v>
+      </c>
+      <c r="J171" s="1">
+        <f t="shared" si="15"/>
+        <v>2.6549999999999869</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="16"/>
+        <v>8.309355435220521</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="17"/>
+        <v>3.8855937691474246E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>166</v>
+      </c>
+      <c r="H172" s="1">
+        <f t="shared" si="13"/>
+        <v>2.6599999999999868</v>
+      </c>
+      <c r="I172" s="1">
+        <f t="shared" si="14"/>
+        <v>8.3286462019838279</v>
+      </c>
+      <c r="J172" s="1">
+        <f t="shared" si="15"/>
+        <v>2.6649999999999867</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="16"/>
+        <v>8.3479349828310987</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="17"/>
+        <v>3.8296502496928619E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>167</v>
+      </c>
+      <c r="H173" s="1">
+        <f t="shared" si="13"/>
+        <v>2.6699999999999866</v>
+      </c>
+      <c r="I173" s="1">
+        <f t="shared" si="14"/>
+        <v>8.3669427044807563</v>
+      </c>
+      <c r="J173" s="1">
+        <f t="shared" si="15"/>
+        <v>2.6749999999999865</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="16"/>
+        <v>8.3859484520297123</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="17"/>
+        <v>3.772383524511403E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>168</v>
+      </c>
+      <c r="H174" s="1">
+        <f t="shared" si="13"/>
+        <v>2.6799999999999864</v>
+      </c>
+      <c r="I174" s="1">
+        <f t="shared" si="14"/>
+        <v>8.40466653972587</v>
+      </c>
+      <c r="J174" s="1">
+        <f t="shared" si="15"/>
+        <v>2.6849999999999863</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="16"/>
+        <v>8.4233826665889868</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="17"/>
+        <v>3.7138051851457951E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>169</v>
+      </c>
+      <c r="H175" s="1">
+        <f t="shared" si="13"/>
+        <v>2.6899999999999862</v>
+      </c>
+      <c r="I175" s="1">
+        <f t="shared" si="14"/>
+        <v>8.4418045915773288</v>
+      </c>
+      <c r="J175" s="1">
+        <f t="shared" si="15"/>
+        <v>2.6949999999999861</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="16"/>
+        <v>8.4602245704550274</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="17"/>
+        <v>3.6539276745446325E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <v>170</v>
+      </c>
+      <c r="H176" s="1">
+        <f t="shared" si="13"/>
+        <v>2.699999999999986</v>
+      </c>
+      <c r="I176" s="1">
+        <f t="shared" si="14"/>
+        <v>8.4783438683227743</v>
+      </c>
+      <c r="J176" s="1">
+        <f t="shared" si="15"/>
+        <v>2.7049999999999859</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="16"/>
+        <v>8.4964612362579004</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="17"/>
+        <v>3.5927642859327459E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <v>171</v>
+      </c>
+      <c r="H177" s="1">
+        <f t="shared" si="13"/>
+        <v>2.7099999999999858</v>
+      </c>
+      <c r="I177" s="1">
+        <f t="shared" si="14"/>
+        <v>8.5142715111821019</v>
+      </c>
+      <c r="J177" s="1">
+        <f t="shared" si="15"/>
+        <v>2.7149999999999856</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="16"/>
+        <v>8.5320798738066586</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="17"/>
+        <v>3.530329160835767E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <v>172</v>
+      </c>
+      <c r="H178" s="1">
+        <f t="shared" si="13"/>
+        <v>2.7199999999999855</v>
+      </c>
+      <c r="I178" s="1">
+        <f t="shared" si="14"/>
+        <v>8.5495748027904597</v>
+      </c>
+      <c r="J178" s="1">
+        <f t="shared" si="15"/>
+        <v>2.7249999999999854</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="16"/>
+        <v>8.5670678385603232</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="17"/>
+        <v>3.4666372862518932E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <v>173</v>
+      </c>
+      <c r="H179" s="1">
+        <f t="shared" si="13"/>
+        <v>2.7299999999999853</v>
+      </c>
+      <c r="I179" s="1">
+        <f t="shared" si="14"/>
+        <v>8.5842411756529788</v>
+      </c>
+      <c r="J179" s="1">
+        <f t="shared" si="15"/>
+        <v>2.7349999999999852</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="16"/>
+        <v>8.601412640066334</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="17"/>
+        <v>3.4017044909650955E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <v>174</v>
+      </c>
+      <c r="H180" s="1">
+        <f t="shared" si="13"/>
+        <v>2.7399999999999851</v>
+      </c>
+      <c r="I180" s="1">
+        <f t="shared" si="14"/>
+        <v>8.6182582205626304</v>
+      </c>
+      <c r="J180" s="1">
+        <f t="shared" si="15"/>
+        <v>2.744999999999985</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="16"/>
+        <v>8.6351019503578037</v>
+      </c>
+      <c r="L180">
+        <f t="shared" si="17"/>
+        <v>3.3355474409951631E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G181">
+        <v>175</v>
+      </c>
+      <c r="H181" s="1">
+        <f t="shared" si="13"/>
+        <v>2.7499999999999849</v>
+      </c>
+      <c r="I181" s="1">
+        <f t="shared" si="14"/>
+        <v>8.6516136949725819</v>
+      </c>
+      <c r="J181" s="1">
+        <f t="shared" si="15"/>
+        <v>2.7549999999999848</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="16"/>
+        <v>8.6681236123009668</v>
+      </c>
+      <c r="L181">
+        <f t="shared" si="17"/>
+        <v>3.2681836341812161E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <v>176</v>
+      </c>
+      <c r="H182" s="1">
+        <f t="shared" si="13"/>
+        <v>2.7599999999999847</v>
+      </c>
+      <c r="I182" s="1">
+        <f t="shared" si="14"/>
+        <v>8.6842955313143939</v>
+      </c>
+      <c r="J182" s="1">
+        <f t="shared" si="15"/>
+        <v>2.7649999999999846</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="16"/>
+        <v>8.7004656478841191</v>
+      </c>
+      <c r="L182">
+        <f t="shared" si="17"/>
+        <v>3.199631393896514E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <v>177</v>
+      </c>
+      <c r="H183" s="1">
+        <f t="shared" si="13"/>
+        <v>2.7699999999999845</v>
+      </c>
+      <c r="I183" s="1">
+        <f t="shared" si="14"/>
+        <v>8.7162918452533589</v>
+      </c>
+      <c r="J183" s="1">
+        <f t="shared" si="15"/>
+        <v>2.7749999999999844</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="16"/>
+        <v>8.7321162664393519</v>
+      </c>
+      <c r="L183">
+        <f t="shared" si="17"/>
+        <v>3.1299098618936629E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <v>178</v>
+      </c>
+      <c r="H184" s="1">
+        <f t="shared" si="13"/>
+        <v>2.7799999999999843</v>
+      </c>
+      <c r="I184" s="1">
+        <f t="shared" si="14"/>
+        <v>8.7475909438722947</v>
+      </c>
+      <c r="J184" s="1">
+        <f t="shared" si="15"/>
+        <v>2.7849999999999842</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="16"/>
+        <v>8.7630638727884005</v>
+      </c>
+      <c r="L184">
+        <f t="shared" si="17"/>
+        <v>3.0590389902805562E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <v>179</v>
+      </c>
+      <c r="H185" s="1">
+        <f t="shared" si="13"/>
+        <v>2.789999999999984</v>
+      </c>
+      <c r="I185" s="1">
+        <f t="shared" si="14"/>
+        <v>8.7781813337751</v>
+      </c>
+      <c r="J185" s="1">
+        <f t="shared" si="15"/>
+        <v>2.7949999999999839</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="16"/>
+        <v>8.7932970753039097</v>
+      </c>
+      <c r="L185">
+        <f t="shared" si="17"/>
+        <v>2.9870395326286828E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <v>180</v>
+      </c>
+      <c r="H186" s="1">
+        <f t="shared" si="13"/>
+        <v>2.7999999999999838</v>
+      </c>
+      <c r="I186" s="1">
+        <f t="shared" si="14"/>
+        <v>8.8080517291013862</v>
+      </c>
+      <c r="J186" s="1">
+        <f t="shared" si="15"/>
+        <v>2.8049999999999837</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="16"/>
+        <v>8.8228046938774334</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="17"/>
+        <v>2.9139330342166994E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <v>181</v>
+      </c>
+      <c r="H187" s="1">
+        <f t="shared" si="13"/>
+        <v>2.8099999999999836</v>
+      </c>
+      <c r="I187" s="1">
+        <f t="shared" si="14"/>
+        <v>8.837191059443553</v>
+      </c>
+      <c r="J187" s="1">
+        <f t="shared" si="15"/>
+        <v>2.8149999999999835</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="16"/>
+        <v>8.8515757677855849</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="17"/>
+        <v>2.839741821413469E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <v>182</v>
+      </c>
+      <c r="H188" s="1">
+        <f t="shared" si="13"/>
+        <v>2.8199999999999834</v>
+      </c>
+      <c r="I188" s="1">
+        <f t="shared" si="14"/>
+        <v>8.8655884776576883</v>
+      </c>
+      <c r="J188" s="1">
+        <f t="shared" si="15"/>
+        <v>2.8249999999999833</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="16"/>
+        <v>8.8795995634457103</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="17"/>
+        <v>2.7644889902060588E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <v>183</v>
+      </c>
+      <c r="H189" s="1">
+        <f t="shared" si="13"/>
+        <v>2.8299999999999832</v>
+      </c>
+      <c r="I189" s="1">
+        <f t="shared" si="14"/>
+        <v>8.8932333675597484</v>
+      </c>
+      <c r="J189" s="1">
+        <f t="shared" si="15"/>
+        <v>2.8349999999999831</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="16"/>
+        <v>8.9068655820525748</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="17"/>
+        <v>2.688198393879487E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <v>184</v>
+      </c>
+      <c r="H190" s="1">
+        <f t="shared" si="13"/>
+        <v>2.839999999999983</v>
+      </c>
+      <c r="I190" s="1">
+        <f t="shared" si="14"/>
+        <v>8.9201153514985432</v>
+      </c>
+      <c r="J190" s="1">
+        <f t="shared" si="15"/>
+        <v>2.8449999999999829</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="16"/>
+        <v>8.9333635670876532</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="17"/>
+        <v>2.6108946298563286E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <v>185</v>
+      </c>
+      <c r="H191" s="1">
+        <f t="shared" si="13"/>
+        <v>2.8499999999999828</v>
+      </c>
+      <c r="I191" s="1">
+        <f t="shared" si="14"/>
+        <v>8.9462242977971069</v>
+      </c>
+      <c r="J191" s="1">
+        <f t="shared" si="15"/>
+        <v>2.8549999999999827</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="16"/>
+        <v>8.9590835116926133</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="17"/>
+        <v>2.5326030257055543E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <v>186</v>
+      </c>
+      <c r="H192" s="1">
+        <f t="shared" si="13"/>
+        <v>2.8599999999999826</v>
+      </c>
+      <c r="I192" s="1">
+        <f t="shared" si="14"/>
+        <v>8.9715503280541622</v>
+      </c>
+      <c r="J192" s="1">
+        <f t="shared" si="15"/>
+        <v>2.8649999999999824</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="16"/>
+        <v>8.9840156658987702</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="17"/>
+        <v>2.4533496243313087E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <v>187</v>
+      </c>
+      <c r="H193" s="1">
+        <f t="shared" si="13"/>
+        <v>2.8699999999999823</v>
+      </c>
+      <c r="I193" s="1">
+        <f t="shared" si="14"/>
+        <v>8.9960838242974752</v>
+      </c>
+      <c r="J193" s="1">
+        <f t="shared" si="15"/>
+        <v>2.8749999999999822</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="16"/>
+        <v>9.0081505437043567</v>
+      </c>
+      <c r="L193">
+        <f t="shared" si="17"/>
+        <v>2.3731611683535884E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <v>188</v>
+      </c>
+      <c r="H194" s="1">
+        <f t="shared" si="13"/>
+        <v>2.8799999999999821</v>
+      </c>
+      <c r="I194" s="1">
+        <f t="shared" si="14"/>
+        <v>9.0198154359810108</v>
+      </c>
+      <c r="J194" s="1">
+        <f t="shared" si="15"/>
+        <v>2.884999999999982</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="16"/>
+        <v>9.0314789299915947</v>
+      </c>
+      <c r="L194">
+        <f t="shared" si="17"/>
+        <v>2.2920650836940847E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <v>189</v>
+      </c>
+      <c r="H195" s="1">
+        <f t="shared" si="13"/>
+        <v>2.8899999999999819</v>
+      </c>
+      <c r="I195" s="1">
+        <f t="shared" si="14"/>
+        <v>9.0427360868179516</v>
+      </c>
+      <c r="J195" s="1">
+        <f t="shared" si="15"/>
+        <v>2.8949999999999818</v>
+      </c>
+      <c r="K195">
+        <f t="shared" si="16"/>
+        <v>9.0539918872756857</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="17"/>
+        <v>2.2100894623816959E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <v>190</v>
+      </c>
+      <c r="H196" s="1">
+        <f t="shared" si="13"/>
+        <v>2.8999999999999817</v>
+      </c>
+      <c r="I196" s="1">
+        <f t="shared" si="14"/>
+        <v>9.0648369814417684</v>
+      </c>
+      <c r="J196" s="1">
+        <f t="shared" si="15"/>
+        <v>2.9049999999999816</v>
+      </c>
+      <c r="K196">
+        <f t="shared" si="16"/>
+        <v>9.0756807622779903</v>
+      </c>
+      <c r="L196">
+        <f t="shared" si="17"/>
+        <v>2.1272630445934741E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <v>191</v>
+      </c>
+      <c r="H197" s="1">
+        <f t="shared" si="13"/>
+        <v>2.9099999999999815</v>
+      </c>
+      <c r="I197" s="1">
+        <f t="shared" si="14"/>
+        <v>9.0861096118877036</v>
+      </c>
+      <c r="J197" s="1">
+        <f t="shared" si="15"/>
+        <v>2.9149999999999814</v>
+      </c>
+      <c r="K197">
+        <f t="shared" si="16"/>
+        <v>9.0965371923158376</v>
+      </c>
+      <c r="L197">
+        <f t="shared" si="17"/>
+        <v>2.0436151999480092E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <v>192</v>
+      </c>
+      <c r="H198" s="1">
+        <f t="shared" si="13"/>
+        <v>2.9199999999999813</v>
+      </c>
+      <c r="I198" s="1">
+        <f t="shared" si="14"/>
+        <v>9.1065457638871834</v>
+      </c>
+      <c r="J198" s="1">
+        <f t="shared" si="15"/>
+        <v>2.9249999999999812</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="16"/>
+        <v>9.1165531115015863</v>
+      </c>
+      <c r="L198">
+        <f t="shared" si="17"/>
+        <v>1.9591759080694451E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <v>193</v>
+      </c>
+      <c r="H199" s="1">
+        <f t="shared" si="13"/>
+        <v>2.9299999999999811</v>
+      </c>
+      <c r="I199" s="1">
+        <f t="shared" si="14"/>
+        <v>9.1261375229678787</v>
+      </c>
+      <c r="J199" s="1">
+        <f t="shared" si="15"/>
+        <v>2.934999999999981</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="16"/>
+        <v>9.1357207567437104</v>
+      </c>
+      <c r="L199">
+        <f t="shared" si="17"/>
+        <v>1.8739757384415245E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <v>194</v>
+      </c>
+      <c r="H200" s="1">
+        <f t="shared" ref="H200:H206" si="18">H199+$C$2</f>
+        <v>2.9399999999999809</v>
+      </c>
+      <c r="I200" s="1">
+        <f t="shared" ref="I200:I206" si="19">I199+L199</f>
+        <v>9.1448772803522935</v>
+      </c>
+      <c r="J200" s="1">
+        <f t="shared" si="15"/>
+        <v>2.9449999999999807</v>
+      </c>
+      <c r="K200">
+        <f t="shared" si="16"/>
+        <v>9.1540326735429307</v>
+      </c>
+      <c r="L200">
+        <f t="shared" si="17"/>
+        <v>1.7880458295722167E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <v>195</v>
+      </c>
+      <c r="H201" s="1">
+        <f t="shared" si="18"/>
+        <v>2.9499999999999806</v>
+      </c>
+      <c r="I201" s="1">
+        <f t="shared" si="19"/>
+        <v>9.1627577386480166</v>
+      </c>
+      <c r="J201" s="1">
+        <f t="shared" si="15"/>
+        <v>2.9549999999999805</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="16"/>
+        <v>9.1714817215766224</v>
+      </c>
+      <c r="L201">
+        <f t="shared" si="17"/>
+        <v>1.7014178674906132E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <v>196</v>
+      </c>
+      <c r="H202" s="1">
+        <f t="shared" si="18"/>
+        <v>2.9599999999999804</v>
+      </c>
+      <c r="I202" s="1">
+        <f t="shared" si="19"/>
+        <v>9.1797719173229222</v>
+      </c>
+      <c r="J202" s="1">
+        <f t="shared" si="15"/>
+        <v>2.9649999999999803</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="16"/>
+        <v>9.1880610800648679</v>
+      </c>
+      <c r="L202">
+        <f t="shared" si="17"/>
+        <v>1.6141240635988801E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <v>197</v>
+      </c>
+      <c r="H203" s="1">
+        <f t="shared" si="18"/>
+        <v>2.9699999999999802</v>
+      </c>
+      <c r="I203" s="1">
+        <f t="shared" si="19"/>
+        <v>9.1959131579589108</v>
+      </c>
+      <c r="J203" s="1">
+        <f t="shared" si="15"/>
+        <v>2.9749999999999801</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="16"/>
+        <v>9.203764252911899</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="17"/>
+        <v>1.5261971319031276E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <v>198</v>
+      </c>
+      <c r="H204" s="1">
+        <f t="shared" si="18"/>
+        <v>2.97999999999998</v>
+      </c>
+      <c r="I204" s="1">
+        <f t="shared" si="19"/>
+        <v>9.211175129277942</v>
+      </c>
+      <c r="J204" s="1">
+        <f t="shared" si="15"/>
+        <v>2.9849999999999799</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="16"/>
+        <v>9.2185850736167918</v>
+      </c>
+      <c r="L204">
+        <f t="shared" si="17"/>
+        <v>1.4376702656480911E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <v>199</v>
+      </c>
+      <c r="H205" s="1">
+        <f t="shared" si="18"/>
+        <v>2.9899999999999798</v>
+      </c>
+      <c r="I205" s="1">
+        <f t="shared" si="19"/>
+        <v>9.225551831934423</v>
+      </c>
+      <c r="J205" s="1">
+        <f t="shared" ref="J205:J206" si="20">H205+$D$2</f>
+        <v>2.9949999999999797</v>
+      </c>
+      <c r="K205">
+        <f t="shared" ref="K205:K206" si="21">I205+$D$2*I205*SIN(H205)</f>
+        <v>9.2325177099475919</v>
+      </c>
+      <c r="L205">
+        <f t="shared" ref="L205:L206" si="22">$C$2*SIN(J205)*K205</f>
+        <v>1.3485771133815135E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <v>200</v>
+      </c>
+      <c r="H206" s="1">
+        <f t="shared" si="18"/>
+        <v>2.9999999999999796</v>
+      </c>
+      <c r="I206" s="1">
+        <f t="shared" si="19"/>
+        <v>9.2390376030682386</v>
+      </c>
+      <c r="J206" s="1">
+        <f t="shared" si="20"/>
+        <v>3.0049999999999795</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="21"/>
+        <v>9.2455566683732915</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="22"/>
+        <v>1.2589517544750727E-2</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ECF0D3-756C-4256-860E-330D1A728E7D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>